--- a/biology/Zoologie/Formica_pressilabris/Formica_pressilabris.xlsx
+++ b/biology/Zoologie/Formica_pressilabris/Formica_pressilabris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Formica pressilabris est une espèce de fourmis du genre Formica.
 </t>
@@ -511,11 +523,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'espèce a été décrite pour la première fois en 1846 par le botaniste et entomologiste finlandais Wilhelm Nylander.
-Le nom valide complet (avec auteur) de ce taxon est Formica pressilabris Nylander, 1846[1].
-Formica pressilabris a pour synonymes[1] :
+Le nom valide complet (avec auteur) de ce taxon est Formica pressilabris Nylander, 1846.
+Formica pressilabris a pour synonymes :
 Coptoformica pressilabris
 Formica exsecta subsp. pressilabris Nylander, 1846</t>
         </is>
@@ -545,10 +559,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Formica pressilabris est une espèce répandue dans toute l'Europe, de la Russie à la Belgique et de la Finlande à l'Espagne[2]. Elle se rencontre également en Asie, de l'Arménie à la Mongolie[2].
-Les spécimens de Formica pressilabris ont été trouvés à des altitudes comprises entre 1 250 et 2 250 m[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Formica pressilabris est une espèce répandue dans toute l'Europe, de la Russie à la Belgique et de la Finlande à l'Espagne. Elle se rencontre également en Asie, de l'Arménie à la Mongolie.
+Les spécimens de Formica pressilabris ont été trouvés à des altitudes comprises entre 1 250 et 2 250 m.
 </t>
         </is>
       </c>
